--- a/excel_with_subclasses/with_count/park_with_count.xlsx
+++ b/excel_with_subclasses/with_count/park_with_count.xlsx
@@ -432,7 +432,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>2763</v>
+        <v>2766</v>
       </c>
     </row>
     <row r="3">
@@ -632,7 +632,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13">
